--- a/data/trans_camb/P16A_n_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A_n_R2-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.655824891704998</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>10.77980781696011</v>
+        <v>10.77980781696012</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.8342534107417032</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.696470010123233</v>
+        <v>-6.869574426799099</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.615367984539977</v>
+        <v>-7.429125355151052</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.046140383181803</v>
+        <v>4.917574124455051</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.673712112519373</v>
+        <v>1.839043244814604</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.649360384985985</v>
+        <v>-3.358503661218849</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.043651107948999</v>
+        <v>5.566192207091258</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.432025460091424</v>
+        <v>-2.212619238051479</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.099078814163852</v>
+        <v>-5.070391394438591</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.547671376815593</v>
+        <v>6.273845377712265</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.760202993842505</v>
+        <v>2.419592870110836</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.166845982065762</v>
+        <v>1.729519105697098</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.63538901905494</v>
+        <v>17.13147655535129</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.42744311424937</v>
+        <v>10.81518013256174</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.213111639513373</v>
+        <v>5.313347663354552</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.64539824337406</v>
+        <v>15.53525715810434</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.05683498257716</v>
+        <v>4.145720954395779</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9605413843950692</v>
+        <v>1.115574503721965</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.04411093985116</v>
+        <v>13.85716591600031</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.01665054929139612</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2736854359727616</v>
+        <v>0.273685435972762</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.02407906127967395</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2260722916489012</v>
+        <v>-0.2303975038962059</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2474740323443652</v>
+        <v>-0.2479008520083265</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1863987830000593</v>
+        <v>0.1736624806077299</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.0408805839248322</v>
+        <v>0.04476806331750221</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.08797727781136611</v>
+        <v>-0.08086783914676239</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1437705456652015</v>
+        <v>0.1335930601294084</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06661526123145012</v>
+        <v>-0.06158545473768607</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1423012809846538</v>
+        <v>-0.1396082536485968</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1810274961730728</v>
+        <v>0.1694982389671331</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1043598381892218</v>
+        <v>0.1033311817855838</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.04966659442617775</v>
+        <v>0.07318612588433156</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6745571779450023</v>
+        <v>0.7021457134990277</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2833084024558579</v>
+        <v>0.293656916799545</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1454791568472625</v>
+        <v>0.1444001906009723</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4189594902107123</v>
+        <v>0.4191636869746652</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1234170959139132</v>
+        <v>0.1267194754439254</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.02760114577492287</v>
+        <v>0.03451501901638427</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4260759617050164</v>
+        <v>0.4229218557001407</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.171668630247182</v>
+        <v>4.633047426946928</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.193964058846979</v>
+        <v>1.910925784241081</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.222906468598156</v>
+        <v>8.150486625405943</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.825052697098551</v>
+        <v>8.987343384805065</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.7762218504874798</v>
+        <v>-0.5954541909479379</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>10.23792654016751</v>
+        <v>10.03317827160306</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8.351175571083129</v>
+        <v>8.092611673407214</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.206246216902096</v>
+        <v>2.123667264858444</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>10.79421446195469</v>
+        <v>10.55509622863094</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.54545537553286</v>
+        <v>11.88520215965153</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.93434460650564</v>
+        <v>8.995925457667191</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.08873356004274</v>
+        <v>16.15138545918172</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.66106952551666</v>
+        <v>17.20236060948861</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.736543628058218</v>
+        <v>7.669740441706415</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>17.52053945863727</v>
+        <v>17.71000333060458</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>14.25626241602651</v>
+        <v>13.59238378163429</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.708803060324286</v>
+        <v>7.712826971556982</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>16.24408838701227</v>
+        <v>16.31080131938865</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.2118660736876531</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.5942077457479152</v>
+        <v>0.594207745747915</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2228849368187391</v>
+        <v>0.2475795176165227</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1023898924274797</v>
+        <v>0.1013373449667455</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4377208827109106</v>
+        <v>0.4343589923828626</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2897381468396538</v>
+        <v>0.2926645064376113</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02446233845088912</v>
+        <v>-0.02151667565990506</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3409047196687836</v>
+        <v>0.3255268274085234</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3408060356976601</v>
+        <v>0.3327457501978109</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09174025444128527</v>
+        <v>0.08746999606587194</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.4529815110751454</v>
+        <v>0.4407306695798551</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7420604887536281</v>
+        <v>0.7662718714876358</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5599213642827803</v>
+        <v>0.578261019220753</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.021940160486508</v>
+        <v>1.029173760751762</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6712758488306466</v>
+        <v>0.6443018271219798</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.297071481817662</v>
+        <v>0.2900737039621077</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6695394274555653</v>
+        <v>0.6601915936302196</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.658277155053375</v>
+        <v>0.6354216870790207</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3565235981596537</v>
+        <v>0.356370855411312</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.7614939615935965</v>
+        <v>0.7647663282720412</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>9.891031500039723</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>13.39161884002884</v>
+        <v>13.39161884002885</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>12.0419506822988</v>
+        <v>12.05305685772422</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.119601756830188</v>
+        <v>6.458464173568747</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10.00766572512135</v>
+        <v>10.40783130483196</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.113809116036451</v>
+        <v>7.644274530131527</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.842329592805832</v>
+        <v>5.285690050024712</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>8.81879445963124</v>
+        <v>8.918384120625984</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>11.39416077592277</v>
+        <v>11.32956216669573</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>6.912755497296668</v>
+        <v>7.216259742529703</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>10.95091730751918</v>
+        <v>10.88213037232557</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>19.42101179403794</v>
+        <v>19.57779760866332</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.11302733458417</v>
+        <v>13.52571158410212</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.92046765320083</v>
+        <v>16.93528682441965</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.27147670308185</v>
+        <v>16.31448983068283</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>14.27461422756593</v>
+        <v>13.94150560985235</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.23410241105186</v>
+        <v>16.11916579854799</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>17.00686410083308</v>
+        <v>17.13204682969097</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>12.71016027548456</v>
+        <v>12.8720964494768</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>15.94519033657517</v>
+        <v>15.95634884702208</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.4075292419134534</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5272505476292013</v>
+        <v>0.5272505476292015</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.7875455558682596</v>
@@ -1197,7 +1197,7 @@
         <v>0.5477487638060475</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7416054296215835</v>
+        <v>0.7416054296215838</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.8192247203133528</v>
+        <v>0.8098681262986362</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.4347650162399891</v>
+        <v>0.4564747887577957</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6720846380361182</v>
+        <v>0.7053677740941736</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.3106969945218221</v>
+        <v>0.300540617657525</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1895586318915604</v>
+        <v>0.2058666646954302</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3425844348791663</v>
+        <v>0.348224369041521</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5803354482512991</v>
+        <v>0.5807197375656541</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3620065996090305</v>
+        <v>0.3777238610343792</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5736184151248458</v>
+        <v>0.5667850175069107</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.720795720015025</v>
+        <v>1.62995142771091</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.145779995078389</v>
+        <v>1.130569525377359</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.436285012694016</v>
+        <v>1.456570668552546</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7518399690680772</v>
+        <v>0.7485526180096518</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6610924231045859</v>
+        <v>0.6326125722492258</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7492339529572178</v>
+        <v>0.7450564939230895</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.020118771566878</v>
+        <v>1.006245523460263</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7577077205459809</v>
+        <v>0.7457295418179165</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9510508138000495</v>
+        <v>0.9478647060562265</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>5.311829332403787</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13.62596427239515</v>
+        <v>13.62596427239516</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>7.289678773454789</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8537195420824019</v>
+        <v>-1.04044736274088</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.580212892072046</v>
+        <v>0.27243973487065</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.194263176481265</v>
+        <v>9.139836105914267</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2287205742286594</v>
+        <v>1.094760744375426</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.005884089734469</v>
+        <v>-0.8751845933849272</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.844946323930222</v>
+        <v>7.723694478641151</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.418953626042882</v>
+        <v>1.713173261817406</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.622722904728242</v>
+        <v>1.739483478678038</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>10.27776218086012</v>
+        <v>9.944859565780243</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.615465664291104</v>
+        <v>9.316838619753334</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.40643789255518</v>
+        <v>10.84568016162183</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.86258357478796</v>
+        <v>18.63932105076912</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.23436723840274</v>
+        <v>13.95105645629149</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.64231726072937</v>
+        <v>11.72376873009273</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.9141523417406</v>
+        <v>18.0427445945177</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.03571183394101</v>
+        <v>9.735028409971283</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.454754719910087</v>
+        <v>9.633158453790498</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>17.27407059252203</v>
+        <v>16.78520685881561</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3445870310320195</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.8839385228230247</v>
+        <v>0.883938522823025</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3134981534150087</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05105833751476042</v>
+        <v>-0.06611725869226352</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.04078856654332878</v>
+        <v>0.009153115903879593</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4430948782949154</v>
+        <v>0.4948326672902983</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.007903355438796974</v>
+        <v>0.04046384732086495</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.03836669954256731</v>
+        <v>-0.03751622080455883</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2946063062656354</v>
+        <v>0.2735407622655019</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06863228904721169</v>
+        <v>0.08037333724344729</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.07820672461489848</v>
+        <v>0.08187995651537429</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4770510873970534</v>
+        <v>0.4514467611679956</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7301464222387551</v>
+        <v>0.6792588087019263</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8150849341054687</v>
+        <v>0.8215812279746513</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.395578710338744</v>
+        <v>1.473301091731515</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.652492009069911</v>
+        <v>0.7129688015491489</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5846695395921711</v>
+        <v>0.593289895283407</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9587483622753054</v>
+        <v>0.9278179168216315</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5903937775689552</v>
+        <v>0.579340195971791</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.55145017529046</v>
+        <v>0.5781254608797903</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.053397768235429</v>
+        <v>0.9905869132332211</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>5.500879168902372</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>11.72530465439109</v>
+        <v>11.7253046543911</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.796474951960677</v>
+        <v>5.768575193748453</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.59479253840788</v>
+        <v>3.762235038327209</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10.2787694798741</v>
+        <v>10.2264618299405</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.959300210787166</v>
+        <v>8.16598173303996</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.903496365806373</v>
+        <v>2.857426717325567</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8.706329531016291</v>
+        <v>8.549410895893557</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>7.662987881679402</v>
+        <v>7.72847690969399</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.845933344384258</v>
+        <v>4.037375209436121</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>10.21249071778618</v>
+        <v>10.0455421551548</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.88614944863061</v>
+        <v>10.06957305173967</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.563019604230578</v>
+        <v>7.784936833881257</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.47328352259763</v>
+        <v>14.41855950777604</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.61094035514415</v>
+        <v>12.67422295330764</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.560790798308556</v>
+        <v>7.420477483626893</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.01873192516341</v>
+        <v>12.77186568232158</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.85554272971868</v>
+        <v>10.791913898177</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.001064283266276</v>
+        <v>6.985968594654819</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>13.20653440981257</v>
+        <v>13.2276048437456</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.2341760914948681</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.499154031790845</v>
+        <v>0.4991540317908452</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.324042817226405</v>
+        <v>0.3087337457495649</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1935918892791302</v>
+        <v>0.2060402285677952</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.55163901947835</v>
+        <v>0.5593075695413238</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2577806023019395</v>
+        <v>0.2662280713509079</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.09434282676881535</v>
+        <v>0.09233214146066537</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2820893936892648</v>
+        <v>0.2763432019719939</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3172538888723452</v>
+        <v>0.3188854141427681</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1593895718155566</v>
+        <v>0.1686454546154674</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4217976758533605</v>
+        <v>0.4171322197216444</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.602993367226054</v>
+        <v>0.6166264841761451</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4567517303143231</v>
+        <v>0.4776427032130025</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8737071394754383</v>
+        <v>0.8900509379827332</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4457923833690139</v>
+        <v>0.4495087391362844</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2661566774857823</v>
+        <v>0.2589096599216719</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4607755573233039</v>
+        <v>0.4499484440968117</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.478378859492071</v>
+        <v>0.47613067591707</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3083525996088274</v>
+        <v>0.3055675144313496</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5876153883593032</v>
+        <v>0.580530819606637</v>
       </c>
     </row>
     <row r="34">
